--- a/Dados_Base_Cart_Inv_Realizado - Portf.xlsx
+++ b/Dados_Base_Cart_Inv_Realizado - Portf.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e62e7c97e835051/Altieri/Softwares/Dev/Projetos Pessoais/Projeto_Carteira_Investimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1843" documentId="11_AD4D361C20488DEA4E38A08A2C9E78AC5ADEDD9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{112FAFA4-49B5-410B-B1C3-93A0C0EF54D2}"/>
+  <xr:revisionPtr revIDLastSave="1844" documentId="11_AD4D361C20488DEA4E38A08A2C9E78AC5ADEDD9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7021D402-40C6-4EC4-87DE-6DEE5748EC9A}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-1980" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="62">
   <si>
     <t>Tipo</t>
   </si>
@@ -405,7 +405,12 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1600,10 +1605,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2160,13 +2161,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0E112F-A326-4BA8-8663-B7A429031E0B}">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2230,7 +2231,7 @@
       </c>
       <c r="D2" s="5">
         <f>+D4+D7+D16</f>
-        <v>251.07</v>
+        <v>274.02</v>
       </c>
       <c r="E2" s="5">
         <f t="shared" ref="E2:I2" si="0">+E4+E7+E16</f>
@@ -2258,7 +2259,7 @@
       </c>
       <c r="K2" s="14">
         <f>SUM(B2:J2)</f>
-        <v>4887.88</v>
+        <v>4910.83</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -2375,7 +2376,7 @@
         <v>2.87</v>
       </c>
       <c r="K6" s="15">
-        <f t="shared" ref="K6:K21" si="2">SUM(B6:J6)</f>
+        <f t="shared" ref="K6:K23" si="2">SUM(B6:J6)</f>
         <v>472.99</v>
       </c>
     </row>
@@ -2690,23 +2691,23 @@
         <v>52</v>
       </c>
       <c r="B16" s="8">
-        <f>SUM(B17:B22)</f>
+        <f>SUM(B17:B24)</f>
         <v>0</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" ref="C16:I16" si="4">SUM(C17:C22)</f>
+        <f t="shared" ref="C16:I16" si="4">SUM(C17:C24)</f>
         <v>0</v>
       </c>
       <c r="D16" s="8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>22.95</v>
       </c>
       <c r="E16" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F16" s="8">
-        <f>SUM(F17:F22)</f>
+        <f>SUM(F17:F24)</f>
         <v>199.57999999999998</v>
       </c>
       <c r="G16" s="8">
@@ -2722,12 +2723,12 @@
         <v>0</v>
       </c>
       <c r="J16" s="8">
-        <f>SUM(J17:J22)</f>
+        <f>SUM(J17:J24)</f>
         <v>259.8</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" si="2"/>
-        <v>459.38</v>
+        <v>482.33</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2790,25 +2791,46 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="1">
+        <v>16.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="1">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J23" s="1">
         <v>62.53</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K23" s="15">
         <f t="shared" si="2"/>
         <v>62.53</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A21">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+  <conditionalFormatting sqref="A4:A20 A23">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:A22">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2824,7 +2846,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A25:XFD26"/>
+      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3492,12 +3514,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A4:A28">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Dados_Base_Cart_Inv_Realizado - Portf.xlsx
+++ b/Dados_Base_Cart_Inv_Realizado - Portf.xlsx
@@ -405,12 +405,7 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2167,7 +2162,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,18 +2814,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
-  <conditionalFormatting sqref="A4:A20 A23">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+  <conditionalFormatting sqref="A4:A23">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:A22">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3514,12 +3504,12 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="A4:A28">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Dados_Base_Cart_Inv_Realizado - Portf.xlsx
+++ b/Dados_Base_Cart_Inv_Realizado - Portf.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e62e7c97e835051/Altieri/Softwares/Dev/Projetos Pessoais/Projeto_Carteira_Investimento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1844" documentId="11_AD4D361C20488DEA4E38A08A2C9E78AC5ADEDD9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7021D402-40C6-4EC4-87DE-6DEE5748EC9A}"/>
+  <xr:revisionPtr revIDLastSave="1845" documentId="11_AD4D361C20488DEA4E38A08A2C9E78AC5ADEDD9C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9507BE7-C9C4-441B-8857-DC24E4AB5DB8}"/>
   <bookViews>
-    <workbookView xWindow="20280" yWindow="-1980" windowWidth="19440" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-1980" windowWidth="19440" windowHeight="15600" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Portfólio" sheetId="4" r:id="rId1"/>
@@ -208,9 +208,6 @@
     <t>XP 1444 Livre</t>
   </si>
   <si>
-    <t>54 - UNIP DIV</t>
-  </si>
-  <si>
     <t>11 - CDB</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
   </si>
   <si>
     <t>21 - CDB Banco Pan</t>
+  </si>
+  <si>
+    <t>54 - UNIP6 DIV</t>
   </si>
 </sst>
 </file>
@@ -1600,6 +1600,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1941,7 +1945,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="1">
         <v>100</v>
@@ -2109,7 +2113,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B33" s="18">
         <v>3000</v>
@@ -2158,11 +2162,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0E112F-A326-4BA8-8663-B7A429031E0B}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomRight" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2309,7 +2313,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="4">
         <v>200</v>
@@ -2832,11 +2836,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7531AC49-D2AB-470A-9337-FB41C217AD03}">
   <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E34" sqref="E34"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2999,13 +3003,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="10"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="10">
         <v>600</v>
@@ -3437,7 +3441,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1">
         <v>59.31</v>
